--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101108.4349433838</v>
+        <v>18381328.6745866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101108.4349433838</v>
+        <v>18381328.6745866</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249865.5524333485</v>
+        <v>30203994.38255168</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249865.5524333485</v>
+        <v>30203994.38255168</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1604028993.45928</v>
+        <v>25265191.79563548</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18536.72006416221</v>
+        <v>645246.0438991087</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36023.05026385935</v>
+        <v>1162427.987482362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53645.60376038353</v>
+        <v>1679609.931065617</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71704.12036219008</v>
+        <v>2044257.984060808</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89132.34542164818</v>
+        <v>2589290.219004772</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106336.8773866827</v>
+        <v>3108519.025332578</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123531.5248272452</v>
+        <v>3626953.929276542</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140726.1722678078</v>
+        <v>4145388.833220509</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>158784.0482516339</v>
+        <v>4510377.673164475</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>176197.387148933</v>
+        <v>5059267.521108445</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>193392.0345894957</v>
+        <v>5577702.425052414</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>210586.6820300582</v>
+        <v>6096137.328996384</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227781.3294706207</v>
+        <v>6614572.232940353</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245448.2261177651</v>
+        <v>7052294.653500486</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265448.9131836111</v>
+        <v>7277108.372396055</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>70</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
